--- a/Dados/clientes.xlsx
+++ b/Dados/clientes.xlsx
@@ -509,7 +509,7 @@
     <col min="2" max="2" style="16" width="13.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="17" width="10.290714285714287" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="27.719285714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="19" width="13.719285714285713" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -682,7 +682,7 @@
         <v>1.9</v>
       </c>
       <c r="E7" s="9">
-        <v>31155025083</v>
+        <v>123123123123</v>
       </c>
       <c r="F7" s="10">
         <v>321321232</v>
